--- a/pedidos_exportados.xlsx
+++ b/pedidos_exportados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,16 +463,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>klaus</t>
+          <t xml:space="preserve">Nicolas </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coca (2), Bolo (1)</t>
+          <t>Coca (1)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -481,23 +481,23 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11/04/2025 02:48</t>
+          <t>20/04/2025 10:13</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>karin</t>
+          <t>Rubens Dias - TIO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coca (3), Bolo (1)</t>
+          <t>Bolo (1)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11/04/2025 15:08</t>
+          <t>20/04/2025 10:51</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Karin</t>
+          <t>Rubens Dias - TIO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -522,316 +522,41 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PIX</t>
+          <t>Dinheiro</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11/04/2025 15:12</t>
+          <t>20/04/2025 10:51</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Karin</t>
+          <t>cristiano</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bolo (1)</t>
+          <t>Coca (1), Bolo (1)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PIX</t>
+          <t>Dinheiro</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11/04/2025 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>klaus</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bolo (1)</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PIX</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>11/04/2025 16:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Nicolas</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Coca (1)</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PIX</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>13/04/2025 17:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Nicolas</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bolo (1)</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PIX</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>13/04/2025 17:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bolo (1)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Dinheiro</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>13/04/2025 17:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>klaus</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Coca (1)</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>PIX</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>13/04/2025 17:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>kauane</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Coca (1)</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>PIX</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>14/04/2025 00:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Gustavo</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Bolo (1), Coca (1)</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>7</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Dinheiro</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>14/04/2025 00:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>kauane</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Bolo (5)</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>15</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>PIX</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>14/04/2025 00:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Agabel</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Coca (1)</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Dinheiro</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>14/04/2025 00:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>kaique</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Coca (1)</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>PIX</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>14/04/2025 00:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>chefinha</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Bolo (5)</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Dinheiro</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>14/04/2025 00:34</t>
+          <t>21/04/2025 20:39</t>
         </is>
       </c>
     </row>
